--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Troldal/Development/bin2c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC33A6FB-1603-2641-A40F-B7C7F2B0E698}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F2A14C-09A9-4D86-882C-1AF139CB6FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
-    <t/>
+    <t>//</t>
   </si>
 </sst>
 </file>
@@ -75,7 +75,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,9 +91,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -131,7 +131,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -237,7 +237,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,12 +387,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F2A14C-09A9-4D86-882C-1AF139CB6FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE32BFD-B284-43C4-8E46-C4D57C17E1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>//</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -395,7 +395,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,9 +405,6 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -36,6 +36,18 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>Plomba</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
 </sst>
 </file>
@@ -406,6 +418,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>400</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1600</t>
   </si>
 </sst>
 </file>
@@ -426,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE32BFD-B284-43C4-8E46-C4D57C17E1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604A2A3-BFB9-441F-A333-8FC29E7C781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="5016" yWindow="2568" windowWidth="23040" windowHeight="12216" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>//</t>
-  </si>
-  <si>
-    <t>Plomba</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1600</t>
   </si>
 </sst>
 </file>
@@ -420,7 +390,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -436,17 +406,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE32BFD-B284-43C4-8E46-C4D57C17E1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2FF121-A4E0-48AE-97BD-B72BCC3E3542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-20880" yWindow="5568" windowWidth="17280" windowHeight="8964" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,39 +33,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>//</t>
   </si>
   <si>
-    <t>Plomba</t>
-  </si>
-  <si>
     <t>T20</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1600</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>Stol dentystyczny</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>XDDDDD</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ruch</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>o nie to 69</t>
   </si>
 </sst>
 </file>
@@ -409,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -436,15 +454,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -500,7 +500,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>

--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>o nie to 69</t>
+  </si>
+  <si>
+    <t>MAti dawak</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -509,6 +515,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/magazyn.xlsx
+++ b/cmake-build-debug/magazyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2FF121-A4E0-48AE-97BD-B72BCC3E3542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549973DF-EDD4-45ED-AD22-97C8522D5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20880" yWindow="5568" windowWidth="17280" windowHeight="8964" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="2424" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,63 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>//</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>Stol dentystyczny</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>XDDDDD</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ruch</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>o nie to 69</t>
-  </si>
-  <si>
-    <t>MAti dawak</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
 </sst>
 </file>
@@ -441,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -460,72 +406,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
